--- a/data/06-09-2020 17_23_28_442661.xlsx
+++ b/data/06-09-2020 17_23_28_442661.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepositories\AlkalinityTitrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITRepositories\AlkalinityTitrator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD3E3C10-6C10-4F75-A595-815E80B661A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5FCAE4-1E9D-4044-A0D8-8E0876ABD7B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3570" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView minimized="1" xWindow="28815" yWindow="1770" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,6 +590,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>June 9, 2020 - Full Titration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2955,8 +2985,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>June 9, 2020 - Smaller Sample</a:t>
+              <a:t>June 9, 2020 -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3.5 to 3 pH</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4873,6 +4908,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HCl Volume Added (mL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4937,6 +5027,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pH Probe Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6138,10 +6283,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6149,7 +6294,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6163,7 +6308,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:ext cx="8671344" cy="6299080"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6196,7 +6341,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675221" cy="6293971"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6521,11 +6666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C343"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
